--- a/scouts/datasets_scouts/pesos_times.xlsx
+++ b/scouts/datasets_scouts/pesos_times.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>170.6</v>
+        <v>175</v>
       </c>
       <c r="H2" t="n">
-        <v>135.2</v>
+        <v>136.4</v>
       </c>
     </row>
     <row r="3">
@@ -510,305 +510,305 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>161</v>
+        <v>161.2</v>
       </c>
       <c r="H3" t="n">
-        <v>124.8</v>
+        <v>127.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JUV</t>
+          <t>FLU</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>138.8</v>
       </c>
       <c r="H4" t="n">
-        <v>104.8</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VAS</t>
+          <t>RBB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>138.6</v>
+        <v>136.4</v>
       </c>
       <c r="H5" t="n">
-        <v>104.4</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FLU</t>
+          <t>CRU</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>128.4</v>
+        <v>117</v>
       </c>
       <c r="H6" t="n">
-        <v>94.59999999999999</v>
+        <v>86.60000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>CEA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>151.2</v>
+        <v>117</v>
       </c>
       <c r="H7" t="n">
-        <v>112.6</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>JUV</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="G8" t="n">
-        <v>126.8</v>
+        <v>127.6</v>
       </c>
       <c r="H8" t="n">
-        <v>96.40000000000001</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>VAS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8</v>
+        <v>128.4</v>
       </c>
       <c r="H9" t="n">
-        <v>102.8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>MIR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
       <c r="G10" t="n">
-        <v>128.6</v>
+        <v>105</v>
       </c>
       <c r="H10" t="n">
-        <v>93</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RBB</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
         <v>3</v>
       </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>116.2</v>
+        <v>116.6</v>
       </c>
       <c r="H11" t="n">
-        <v>84.8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CRU</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>103.8</v>
+        <v>139.8</v>
       </c>
       <c r="H12" t="n">
-        <v>76</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CEA</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
         <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>104.6</v>
+        <v>128.6</v>
       </c>
       <c r="H13" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -818,16 +818,16 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
         <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -842,197 +842,197 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>VIT</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G15" t="n">
-        <v>116</v>
+        <v>104.6</v>
       </c>
       <c r="H15" t="n">
-        <v>84</v>
+        <v>74.19999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GRE</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G16" t="n">
-        <v>92.2</v>
+        <v>117</v>
       </c>
       <c r="H16" t="n">
-        <v>66</v>
+        <v>82.39999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>115.8</v>
+        <v>112.4</v>
       </c>
       <c r="H17" t="n">
-        <v>82.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MIR</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
         <v>3</v>
       </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G18" t="n">
-        <v>81.8</v>
+        <v>105.4</v>
       </c>
       <c r="H18" t="n">
-        <v>56.59999999999999</v>
+        <v>71.80000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VIT</t>
+          <t>GRE</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
         <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="G19" t="n">
-        <v>92.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>64</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SPT</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
         <v>3</v>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>-3</v>
       </c>
       <c r="G20" t="n">
-        <v>80.2</v>
+        <v>105.4</v>
       </c>
       <c r="H20" t="n">
-        <v>56</v>
+        <v>70.80000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SPT</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G21" t="n">
-        <v>99.59999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="H21" t="n">
-        <v>67.19999999999999</v>
+        <v>55.8</v>
       </c>
     </row>
   </sheetData>

--- a/scouts/datasets_scouts/pesos_times.xlsx
+++ b/scouts/datasets_scouts/pesos_times.xlsx
@@ -478,76 +478,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>PAL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>175</v>
+        <v>161.4</v>
       </c>
       <c r="H2" t="n">
-        <v>136.4</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>161.2</v>
+        <v>175</v>
       </c>
       <c r="H3" t="n">
-        <v>127.2</v>
+        <v>136.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FLU</t>
+          <t>RBB</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
         <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -562,57 +562,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RBB</t>
+          <t>FLU</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>136.4</v>
+        <v>138.8</v>
       </c>
       <c r="H5" t="n">
-        <v>107.2</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CRU</t>
+          <t>SAO</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
         <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>117</v>
+        <v>126.4</v>
       </c>
       <c r="H6" t="n">
-        <v>86.60000000000001</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
@@ -631,324 +631,324 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>117</v>
+        <v>116.8</v>
       </c>
       <c r="H7" t="n">
-        <v>87.2</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JUV</t>
+          <t>CRU</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>127.6</v>
+        <v>116.8</v>
       </c>
       <c r="H8" t="n">
-        <v>91.40000000000001</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VAS</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>128.4</v>
+        <v>139.4</v>
       </c>
       <c r="H9" t="n">
-        <v>93</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MIR</t>
+          <t>VAS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G10" t="n">
-        <v>105</v>
+        <v>118.4</v>
       </c>
       <c r="H10" t="n">
-        <v>77.2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>JUV</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="G11" t="n">
-        <v>116.6</v>
+        <v>117.6</v>
       </c>
       <c r="H11" t="n">
-        <v>85</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G12" t="n">
-        <v>139.8</v>
+        <v>127.8</v>
       </c>
       <c r="H12" t="n">
-        <v>102.4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>MIR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>128.6</v>
+        <v>105</v>
       </c>
       <c r="H13" t="n">
-        <v>93</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SAO</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>104</v>
+        <v>129.8</v>
       </c>
       <c r="H14" t="n">
-        <v>76</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VIT</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>104.6</v>
+        <v>105.2</v>
       </c>
       <c r="H15" t="n">
-        <v>74.19999999999999</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>117</v>
+        <v>118.4</v>
       </c>
       <c r="H16" t="n">
-        <v>82.39999999999999</v>
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5</v>
-      </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G17" t="n">
-        <v>112.4</v>
+        <v>117.8</v>
       </c>
       <c r="H17" t="n">
-        <v>77.59999999999999</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>VIT</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G18" t="n">
-        <v>105.4</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>71.80000000000001</v>
+        <v>64.19999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -958,16 +958,16 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
         <v>4</v>
       </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
         <v>-6</v>
@@ -982,29 +982,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G20" t="n">
-        <v>105.4</v>
+        <v>102.2</v>
       </c>
       <c r="H20" t="n">
-        <v>70.80000000000001</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="21">
@@ -1014,25 +1014,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G21" t="n">
-        <v>78.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>55.8</v>
+        <v>54.4</v>
       </c>
     </row>
   </sheetData>

--- a/scouts/datasets_scouts/pesos_times.xlsx
+++ b/scouts/datasets_scouts/pesos_times.xlsx
@@ -478,57 +478,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>161.4</v>
+        <v>178.6</v>
       </c>
       <c r="H2" t="n">
-        <v>129.6</v>
+        <v>137.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>PAL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="H3" t="n">
-        <v>136.4</v>
+        <v>129.4</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>138.8</v>
+        <v>139</v>
       </c>
       <c r="H4" t="n">
-        <v>107.4</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
@@ -575,352 +575,352 @@
         <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>138.8</v>
+        <v>138.4</v>
       </c>
       <c r="H5" t="n">
-        <v>107.4</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SAO</t>
+          <t>CRU</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>126.4</v>
+        <v>119.2</v>
       </c>
       <c r="H6" t="n">
-        <v>96.2</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CEA</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>116.8</v>
+        <v>152.6</v>
       </c>
       <c r="H7" t="n">
-        <v>85.8</v>
+        <v>112.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CRU</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" t="n">
-        <v>116.8</v>
+        <v>138</v>
       </c>
       <c r="H8" t="n">
-        <v>85.2</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>SAO</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
         <v>5</v>
       </c>
-      <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>139.4</v>
+        <v>126.4</v>
       </c>
       <c r="H9" t="n">
-        <v>102.6</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VAS</t>
+          <t>CEA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>118.4</v>
+        <v>106.8</v>
       </c>
       <c r="H10" t="n">
-        <v>83</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JUV</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>117.6</v>
+        <v>131.2</v>
       </c>
       <c r="H11" t="n">
-        <v>81.40000000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>MIR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>127.8</v>
+        <v>105</v>
       </c>
       <c r="H12" t="n">
-        <v>92</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MIR</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="G13" t="n">
-        <v>105</v>
+        <v>128.6</v>
       </c>
       <c r="H13" t="n">
-        <v>77.2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>VAS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G14" t="n">
-        <v>129.8</v>
+        <v>108.2</v>
       </c>
       <c r="H14" t="n">
-        <v>92.40000000000001</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>JUV</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="G15" t="n">
-        <v>105.2</v>
+        <v>107.2</v>
       </c>
       <c r="H15" t="n">
-        <v>74.8</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G16" t="n">
-        <v>118.4</v>
+        <v>117.8</v>
       </c>
       <c r="H16" t="n">
-        <v>81.59999999999999</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
+      <c r="E17" t="n">
         <v>5</v>
       </c>
-      <c r="D17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6</v>
-      </c>
       <c r="F17" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>117.8</v>
+        <v>105.2</v>
       </c>
       <c r="H17" t="n">
-        <v>81</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="18">
@@ -930,16 +930,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>-2</v>
@@ -958,16 +958,16 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
         <v>5</v>
       </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
         <v>-6</v>
@@ -986,25 +986,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G20" t="n">
-        <v>102.2</v>
+        <v>100.8</v>
       </c>
       <c r="H20" t="n">
-        <v>66.2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>

--- a/scouts/datasets_scouts/pesos_times.xlsx
+++ b/scouts/datasets_scouts/pesos_times.xlsx
@@ -478,57 +478,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>PAL</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13</v>
-      </c>
       <c r="G2" t="n">
-        <v>178.6</v>
+        <v>162.6</v>
       </c>
       <c r="H2" t="n">
-        <v>137.2</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
       <c r="G3" t="n">
-        <v>160</v>
+        <v>180.8</v>
       </c>
       <c r="H3" t="n">
-        <v>129.4</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
@@ -538,109 +538,109 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>139</v>
+        <v>141.4</v>
       </c>
       <c r="H4" t="n">
-        <v>109.8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FLU</t>
+          <t>CRU</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>138.4</v>
+        <v>132.4</v>
       </c>
       <c r="H5" t="n">
-        <v>105.6</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CRU</t>
+          <t>FLU</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>119.2</v>
+        <v>130.6</v>
       </c>
       <c r="H6" t="n">
-        <v>85.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>152.6</v>
+        <v>140.4</v>
       </c>
       <c r="H7" t="n">
-        <v>112.8</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="8">
@@ -650,333 +650,333 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>-1</v>
       </c>
       <c r="G8" t="n">
-        <v>138</v>
+        <v>140.2</v>
       </c>
       <c r="H8" t="n">
-        <v>104.4</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SAO</t>
+          <t>CEA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>126.4</v>
+        <v>119.2</v>
       </c>
       <c r="H9" t="n">
-        <v>96.2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CEA</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>106.8</v>
+        <v>134.6</v>
       </c>
       <c r="H10" t="n">
-        <v>75.8</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="G11" t="n">
         <v>131.2</v>
       </c>
       <c r="H11" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MIR</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>105</v>
+        <v>119.2</v>
       </c>
       <c r="H12" t="n">
-        <v>77.2</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>MIR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>128.6</v>
+        <v>107.2</v>
       </c>
       <c r="H13" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VAS</t>
+          <t>VIT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>-2</v>
       </c>
       <c r="G14" t="n">
-        <v>108.2</v>
+        <v>106.8</v>
       </c>
       <c r="H14" t="n">
-        <v>71.59999999999999</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JUV</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="G15" t="n">
-        <v>107.2</v>
+        <v>131.4</v>
       </c>
       <c r="H15" t="n">
-        <v>69.59999999999999</v>
+        <v>88.39999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>SAO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>117.8</v>
+        <v>106.2</v>
       </c>
       <c r="H16" t="n">
-        <v>81</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>GRE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G17" t="n">
-        <v>105.2</v>
+        <v>94</v>
       </c>
       <c r="H17" t="n">
-        <v>74.8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VIT</t>
+          <t>VAS</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G18" t="n">
-        <v>94.59999999999999</v>
+        <v>96.60000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>64.19999999999999</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GRE</t>
+          <t>JUV</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="G19" t="n">
-        <v>81.59999999999999</v>
+        <v>94.80000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>53.8</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="20">
@@ -986,25 +986,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G20" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="H20" t="n">
-        <v>66</v>
+        <v>64.60000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1014,25 +1014,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="G21" t="n">
-        <v>78.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="H21" t="n">
-        <v>54.4</v>
+        <v>52.2</v>
       </c>
     </row>
   </sheetData>

--- a/scouts/datasets_scouts/pesos_times.xlsx
+++ b/scouts/datasets_scouts/pesos_times.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>162.6</v>
+        <v>162.8</v>
       </c>
       <c r="H2" t="n">
-        <v>132</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="3">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>17</v>
@@ -534,253 +534,253 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RBB</t>
+          <t>CRU</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
         <v>6</v>
       </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
       <c r="G4" t="n">
-        <v>141.4</v>
+        <v>132.4</v>
       </c>
       <c r="H4" t="n">
-        <v>110</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CRU</t>
+          <t>RBB</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7</v>
-      </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>132.4</v>
+        <v>140</v>
       </c>
       <c r="H5" t="n">
-        <v>99.2</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FLU</t>
+          <t>CEA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>130.6</v>
+        <v>122</v>
       </c>
       <c r="H6" t="n">
-        <v>94.40000000000001</v>
+        <v>86.39999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>140.4</v>
+        <v>142.6</v>
       </c>
       <c r="H7" t="n">
-        <v>103.6</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>FLU</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>140.2</v>
+        <v>130.6</v>
       </c>
       <c r="H8" t="n">
-        <v>103.2</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CEA</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
-        <v>9</v>
-      </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G9" t="n">
-        <v>119.2</v>
+        <v>143.6</v>
       </c>
       <c r="H9" t="n">
-        <v>86</v>
+        <v>99.19999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>134.6</v>
+        <v>130.4</v>
       </c>
       <c r="H10" t="n">
-        <v>91.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="D11" t="n">
-        <v>11</v>
-      </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>131.2</v>
+        <v>134.6</v>
       </c>
       <c r="H11" t="n">
-        <v>89</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>SAO</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n">
         <v>8</v>
       </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>119.2</v>
+        <v>118.6</v>
       </c>
       <c r="H12" t="n">
-        <v>85.8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -814,85 +814,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VIT</t>
+          <t>VAS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G14" t="n">
-        <v>106.8</v>
+        <v>109.8</v>
       </c>
       <c r="H14" t="n">
-        <v>73</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>131.4</v>
+        <v>108.6</v>
       </c>
       <c r="H15" t="n">
-        <v>88.39999999999999</v>
+        <v>73.60000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SAO</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G16" t="n">
-        <v>106.2</v>
+        <v>131.4</v>
       </c>
       <c r="H16" t="n">
-        <v>74.8</v>
+        <v>88.39999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -902,53 +902,53 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
         <v>8</v>
       </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7</v>
-      </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G17" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="H17" t="n">
-        <v>64</v>
+        <v>62.59999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VAS</t>
+          <t>VIT</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G18" t="n">
         <v>96.60000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>60</v>
+        <v>61.60000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -958,16 +958,16 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
         <v>8</v>
       </c>
-      <c r="C19" t="n">
-        <v>7</v>
-      </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
         <v>-13</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>5</v>
@@ -995,16 +995,16 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G20" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="H20" t="n">
-        <v>64.60000000000001</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="21">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -1023,16 +1023,16 @@
         <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="G21" t="n">
-        <v>75.8</v>
+        <v>75.39999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>52.2</v>
+        <v>50.4</v>
       </c>
     </row>
   </sheetData>

--- a/scouts/datasets_scouts/pesos_times.xlsx
+++ b/scouts/datasets_scouts/pesos_times.xlsx
@@ -478,337 +478,337 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>162.8</v>
+        <v>185.2</v>
       </c>
       <c r="H2" t="n">
-        <v>134.4</v>
+        <v>139.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>CRU</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>180.8</v>
+        <v>135.2</v>
       </c>
       <c r="H3" t="n">
-        <v>136</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CRU</t>
+          <t>RBB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>132.4</v>
+        <v>140.6</v>
       </c>
       <c r="H4" t="n">
-        <v>99.2</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RBB</t>
+          <t>PAL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>140</v>
+        <v>160.8</v>
       </c>
       <c r="H5" t="n">
-        <v>109.8</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CEA</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>122</v>
+        <v>145.4</v>
       </c>
       <c r="H6" t="n">
-        <v>86.39999999999999</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>FLU</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>142.6</v>
+        <v>133.4</v>
       </c>
       <c r="H7" t="n">
-        <v>103.4</v>
+        <v>97.39999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FLU</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>130.6</v>
+        <v>143.4</v>
       </c>
       <c r="H8" t="n">
-        <v>94.40000000000001</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>143.6</v>
+        <v>147.2</v>
       </c>
       <c r="H9" t="n">
-        <v>99.19999999999999</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>MIR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>130.4</v>
+        <v>110</v>
       </c>
       <c r="H10" t="n">
-        <v>93.59999999999999</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="G11" t="n">
-        <v>134.6</v>
+        <v>133.6</v>
       </c>
       <c r="H11" t="n">
-        <v>91.40000000000001</v>
+        <v>89.19999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SAO</t>
+          <t>GRE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="G12" t="n">
-        <v>118.6</v>
+        <v>106.6</v>
       </c>
       <c r="H12" t="n">
-        <v>85</v>
+        <v>75.60000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MIR</t>
+          <t>CEA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>107.2</v>
+        <v>110.4</v>
       </c>
       <c r="H13" t="n">
-        <v>76</v>
+        <v>74.80000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -818,53 +818,53 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G14" t="n">
-        <v>109.8</v>
+        <v>108.2</v>
       </c>
       <c r="H14" t="n">
-        <v>70.59999999999999</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>SAO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="G15" t="n">
-        <v>108.6</v>
+        <v>104.8</v>
       </c>
       <c r="H15" t="n">
-        <v>73.60000000000001</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="16">
@@ -874,137 +874,137 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="G16" t="n">
-        <v>131.4</v>
+        <v>129.2</v>
       </c>
       <c r="H16" t="n">
-        <v>88.39999999999999</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GRE</t>
+          <t>VIT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G17" t="n">
-        <v>93.8</v>
+        <v>105.2</v>
       </c>
       <c r="H17" t="n">
-        <v>62.59999999999999</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VIT</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
         <v>-3</v>
       </c>
       <c r="G18" t="n">
-        <v>96.60000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>61.60000000000001</v>
+        <v>67.80000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JUV</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="G19" t="n">
-        <v>94.80000000000001</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>56.4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>JUV</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
-        <v>-4</v>
+        <v>-16</v>
       </c>
       <c r="G20" t="n">
-        <v>100.4</v>
+        <v>92.8</v>
       </c>
       <c r="H20" t="n">
-        <v>63.2</v>
+        <v>54.59999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1014,25 +1014,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="G21" t="n">
-        <v>75.39999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="H21" t="n">
-        <v>50.4</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
